--- a/AAII_Financials/Yearly/BEGI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BEGI_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>BEGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,52 +665,55 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>38199</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>37833</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>37468</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>37103</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -727,28 +730,31 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>18500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>17600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7400</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -756,29 +762,32 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
         <v>13800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -786,21 +795,24 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
         <v>4700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1200</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,39 +888,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -921,20 +943,23 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>300</v>
       </c>
       <c r="J15" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K15" s="3">
         <v>500</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>500</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,38 +969,42 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>20300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -983,29 +1012,32 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3700</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,8 +1050,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1027,119 +1060,131 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3100</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>200</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,9 +1443,12 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1387,59 +1456,65 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>38199</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>37833</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>37468</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>37103</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,8 +1646,9 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1579,20 +1665,23 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,9 +1709,12 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1638,21 +1730,24 @@
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3">
         <v>2200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1400</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1668,26 +1763,29 @@
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3">
         <v>200</v>
-      </c>
-      <c r="I44" s="3">
-        <v>100</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
       </c>
       <c r="K44" s="3">
+        <v>100</v>
+      </c>
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>4</v>
@@ -1698,8 +1796,8 @@
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3">
-        <v>900</v>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3">
         <v>900</v>
@@ -1710,9 +1808,12 @@
       <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>900</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1729,50 +1830,56 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>3500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>300</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>300</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1789,20 +1896,23 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>400</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1818,21 +1928,24 @@
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3">
         <v>1900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2600</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,14 +2006,17 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>4</v>
@@ -1908,8 +2027,8 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,9 +2072,12 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1960,29 +2085,32 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>5900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,13 +2138,14 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -2027,110 +2157,122 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1900</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3400</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
       <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6500</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2147,20 +2289,23 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>1600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2200</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2176,21 +2321,24 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3">
         <v>400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>500</v>
       </c>
       <c r="J62" s="3">
         <v>500</v>
       </c>
       <c r="K62" s="3">
+        <v>500</v>
+      </c>
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>300</v>
+      </c>
+      <c r="E66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
       <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
         <v>200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9200</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6900</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3100</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>38199</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>37833</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>37468</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>37103</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,8 +2899,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2720,20 +2918,23 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>500</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>800</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-400</v>
       </c>
       <c r="J89" s="3">
         <v>-400</v>
       </c>
       <c r="K89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,26 +3241,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>100</v>
       </c>
       <c r="F94" s="3">
+        <v>100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
@@ -3043,11 +3272,14 @@
         <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,9 +3421,12 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3189,29 +3434,32 @@
         <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1600</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3239,9 +3487,12 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3258,18 +3509,21 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>200</v>
       </c>
       <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3">
+        <v>200</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BEGI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BEGI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>BEGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,58 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>38199</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>37833</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>37468</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>37103</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -733,31 +736,34 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>18500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>17600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7400</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -765,32 +771,35 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
         <v>13800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6100</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -798,21 +807,24 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
         <v>4700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1200</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,18 +907,21 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
@@ -918,15 +937,18 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -946,20 +968,23 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>300</v>
       </c>
       <c r="K15" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L15" s="3">
         <v>500</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>500</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,41 +995,45 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>20300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1012,32 +1041,35 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3700</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,8 +1083,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1060,131 +1093,143 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3100</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,9 +1512,12 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1456,65 +1525,71 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>38199</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>37833</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>37468</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>37103</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,8 +1732,9 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1668,20 +1754,23 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1712,9 +1801,12 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1733,21 +1825,24 @@
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3">
         <v>2200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1400</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1766,29 +1861,32 @@
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3">
         <v>200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
       <c r="L44" s="3">
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
@@ -1799,8 +1897,8 @@
       <c r="H45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="3">
-        <v>900</v>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
         <v>900</v>
@@ -1811,14 +1909,17 @@
       <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>900</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -1833,53 +1934,59 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>3500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>300</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>300</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1899,20 +2006,23 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>400</v>
       </c>
       <c r="L48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>400</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1931,21 +2041,24 @@
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3">
         <v>1900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2600</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,17 +2125,20 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
@@ -2030,8 +2149,8 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
       </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>5900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,17 +2268,18 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
@@ -2160,53 +2290,59 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1900</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2216,63 +2352,69 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3400</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
         <v>300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
       <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6500</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2292,20 +2434,23 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>1600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2200</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2324,21 +2469,24 @@
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3">
         <v>400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>500</v>
       </c>
       <c r="K62" s="3">
         <v>500</v>
       </c>
       <c r="L62" s="3">
+        <v>500</v>
+      </c>
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>100</v>
+      </c>
+      <c r="E66" s="3">
         <v>300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
       <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9200</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6900</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
         <v>-200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3100</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>38199</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>37833</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>37468</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>37103</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,8 +3097,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2921,20 +3119,23 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
       </c>
       <c r="K83" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>500</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,9 +3310,12 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3107,32 +3323,35 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>800</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-400</v>
       </c>
       <c r="K89" s="3">
         <v>-400</v>
       </c>
       <c r="L89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,8 +3365,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3157,30 +3377,33 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,9 +3470,12 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3254,19 +3483,19 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>100</v>
       </c>
       <c r="G94" s="3">
+        <v>100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -3275,11 +3504,14 @@
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,42 +3666,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
         <v>200</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1600</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3490,9 +3738,12 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3512,18 +3763,21 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>200</v>
       </c>
       <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3">
+        <v>200</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BEGI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BEGI_YR_FIN.xlsx
@@ -1865,7 +1865,7 @@
         <v>4</v>
       </c>
       <c r="J44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>300</v>

--- a/AAII_Financials/Yearly/BEGI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BEGI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>BEGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,61 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>38199</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>37833</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>37468</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>37103</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -739,20 +742,23 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>18500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7400</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -762,11 +768,11 @@
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -774,21 +780,24 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <v>13800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6100</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,11 +807,11 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -810,21 +819,24 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
         <v>4700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1200</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,21 +926,24 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -940,20 +959,23 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -971,20 +993,23 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>300</v>
       </c>
       <c r="L15" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M15" s="3">
         <v>500</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>500</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,44 +1021,48 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>20300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1041,35 +1070,38 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3700</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,8 +1116,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1096,140 +1129,152 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3100</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,9 +1581,12 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1528,68 +1597,74 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>38199</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>37833</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>37468</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>37103</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,13 +1818,14 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -1757,20 +1843,23 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1804,68 +1893,74 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>2200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1400</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
@@ -1874,22 +1969,25 @@
         <v>100</v>
       </c>
       <c r="M44" s="3">
+        <v>100</v>
+      </c>
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -1900,8 +1998,8 @@
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="3">
-        <v>900</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>900</v>
@@ -1912,18 +2010,21 @@
       <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>900</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
@@ -1937,20 +2038,23 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>3500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1960,38 +2064,41 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>300</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2009,25 +2116,28 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>300</v>
-      </c>
-      <c r="L48" s="3">
-        <v>400</v>
       </c>
       <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>400</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>200</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>4</v>
@@ -2044,21 +2154,24 @@
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="3">
         <v>1900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2600</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,29 +2244,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>5900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,8 +2398,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2278,11 +2408,11 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
@@ -2293,61 +2423,67 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1900</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2355,66 +2491,72 @@
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3400</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
       <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6500</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2437,56 +2579,62 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2200</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>400</v>
-      </c>
-      <c r="K62" s="3">
-        <v>500</v>
       </c>
       <c r="L62" s="3">
         <v>500</v>
       </c>
       <c r="M62" s="3">
+        <v>500</v>
+      </c>
+      <c r="N62" s="3">
         <v>400</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>100</v>
       </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
       <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9200</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6900</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
         <v>-200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3100</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>38199</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>37833</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>37468</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>37103</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,13 +3295,14 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -3122,20 +3320,23 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
       </c>
       <c r="L83" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>500</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
       </c>
       <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>800</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-400</v>
       </c>
       <c r="L89" s="3">
         <v>-400</v>
       </c>
       <c r="M89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,8 +3585,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3380,30 +3600,33 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,32 +3699,35 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>100</v>
       </c>
       <c r="H94" s="3">
+        <v>100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
@@ -3507,11 +3736,14 @@
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,45 +3911,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
-      </c>
-      <c r="E100" s="3">
-        <v>200</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1600</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3741,14 +3989,17 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -3766,18 +4017,21 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>200</v>
       </c>
       <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3">
+        <v>200</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BEGI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BEGI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>BEGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,64 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>38199</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>37833</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>37468</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>37103</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -745,20 +748,23 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>18500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7400</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,11 +777,11 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -783,21 +789,24 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
         <v>13800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6100</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,11 +819,11 @@
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -822,21 +831,24 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
         <v>4700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1200</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +864,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,9 +903,12 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,24 +945,27 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -962,23 +981,26 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -996,20 +1018,23 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>300</v>
       </c>
       <c r="M15" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N15" s="3">
         <v>500</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>500</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,47 +1047,51 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>20300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1070,38 +1099,41 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3700</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,8 +1149,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1132,149 +1165,161 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3100</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1311,9 +1356,12 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1398,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,9 +1650,12 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1600,71 +1669,77 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1776,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>38199</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>37833</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>37468</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>37103</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,17 +1904,18 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -1846,20 +1932,23 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1896,9 +1985,12 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1924,20 +2016,23 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>2200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1400</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1963,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
@@ -1972,11 +2067,14 @@
         <v>100</v>
       </c>
       <c r="N44" s="3">
+        <v>100</v>
+      </c>
+      <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1984,13 +2082,13 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -2001,8 +2099,8 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>900</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>900</v>
@@ -2013,21 +2111,24 @@
       <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>900</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -2041,20 +2142,23 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>3500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2067,41 +2171,44 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>300</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2119,28 +2226,31 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>300</v>
-      </c>
-      <c r="M48" s="3">
-        <v>400</v>
       </c>
       <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>400</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>200</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
+      <c r="E49" s="3">
+        <v>200</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
@@ -2157,21 +2267,24 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3">
         <v>1900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2600</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,9 +2363,12 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2286,9 +2405,12 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,48 +2447,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>5900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,23 +2528,24 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
@@ -2426,137 +2556,149 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1900</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3400</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
       <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6500</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2582,20 +2724,23 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2200</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2621,20 +2766,23 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>400</v>
-      </c>
-      <c r="L62" s="3">
-        <v>500</v>
       </c>
       <c r="M62" s="3">
         <v>500</v>
       </c>
       <c r="N62" s="3">
+        <v>500</v>
+      </c>
+      <c r="O62" s="3">
         <v>400</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,48 +2903,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
       <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9200</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,48 +3131,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6900</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,48 +3299,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
       <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
         <v>-200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3100</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3383,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>38199</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>37833</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>37468</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>37103</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,16 +3493,17 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -3323,20 +3521,23 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
       </c>
       <c r="M83" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>500</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,9 +3742,12 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3539,38 +3755,41 @@
         <v>-500</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>800</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-400</v>
       </c>
       <c r="M89" s="3">
         <v>-400</v>
       </c>
       <c r="N89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,8 +3805,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3603,30 +3823,33 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,35 +3928,38 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>100</v>
       </c>
       <c r="I94" s="3">
+        <v>100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
@@ -3739,11 +3968,14 @@
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,8 +3991,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3797,9 +4030,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,48 +4156,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
-      </c>
-      <c r="F100" s="3">
-        <v>200</v>
       </c>
       <c r="G100" s="3">
         <v>200</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1600</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3992,18 +4240,21 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -4020,18 +4271,21 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>200</v>
       </c>
       <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3">
+        <v>200</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
